--- a/Gold_Standard_Trials.xlsx
+++ b/Gold_Standard_Trials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13400" windowHeight="16060" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="NCT00097734" sheetId="6" r:id="rId1"/>
@@ -1745,7 +1745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1755,9 +1755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4920,7 +4920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
